--- a/test-cases/Telnyx-cucumber.xlsx
+++ b/test-cases/Telnyx-cucumber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\TelnyxCucumber\test-cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA058242-DB34-49CA-8A34-F93EB5DC3E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F32540-182F-403F-A583-F17CDF8FDAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="5" activeTab="9" xr2:uid="{EBEB4D20-E857-4645-963C-63B1EFA19CF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{EBEB4D20-E857-4645-963C-63B1EFA19CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="ID_0001" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="126">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -294,18 +294,6 @@
   </si>
   <si>
     <t>The "Twilio Alternative eBook Download" form should be opened.</t>
-  </si>
-  <si>
-    <t>The "Thank you!" message should be displayed.</t>
-  </si>
-  <si>
-    <t>All required fields should be filled.</t>
-  </si>
-  <si>
-    <t>Click the "Send my Content" button.</t>
-  </si>
-  <si>
-    <t>Enter data in  all required fields.</t>
   </si>
   <si>
     <t>Checking getting eBook on the "Blog" page.</t>
@@ -639,77 +627,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -734,6 +651,77 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,48 +1052,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -1121,10 +1109,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1149,29 +1137,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1190,96 +1178,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1299,7 +1287,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1325,34 +1313,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -1364,141 +1352,102 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -1513,6 +1462,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1522,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDBC29-1BAC-457F-B632-9A025BE2247C}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,48 +1521,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -1590,10 +1578,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1618,29 +1606,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1659,96 +1647,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -1768,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1794,34 +1782,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -1833,181 +1821,126 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2022,6 +1955,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2042,48 +2014,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -2099,10 +2071,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2127,29 +2099,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -2168,96 +2140,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -2277,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2303,34 +2275,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -2342,163 +2314,124 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="B19" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2513,6 +2446,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2523,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC388DF-3058-42B6-A9DA-3401369CAEE4}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
@@ -2534,48 +2506,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -2591,10 +2563,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -2619,29 +2591,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -2660,94 +2632,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -2767,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2793,34 +2765,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -2832,161 +2804,122 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="B19" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3001,6 +2934,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,48 +2993,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3078,10 +3050,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3106,29 +3078,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3147,94 +3119,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -3254,7 +3226,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3280,34 +3252,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -3319,161 +3291,122 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3488,6 +3421,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3509,48 +3481,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -3566,10 +3538,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -3594,29 +3566,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3635,94 +3607,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -3742,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3768,34 +3740,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -3807,177 +3779,138 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29" t="s">
+      <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>6</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3992,6 +3925,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4012,48 +3984,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4069,10 +4041,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4097,29 +4069,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4138,94 +4110,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -4245,7 +4217,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4271,34 +4243,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -4310,171 +4282,132 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="B21" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29" t="s">
+      <c r="B22" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4489,6 +4422,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4509,48 +4481,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -4566,10 +4538,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4594,29 +4566,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4635,96 +4607,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -4744,7 +4716,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4770,34 +4742,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -4809,147 +4781,108 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4964,6 +4897,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4984,48 +4956,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5041,10 +5013,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5069,29 +5041,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5110,94 +5082,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -5217,7 +5189,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5243,34 +5215,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -5282,141 +5254,102 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5431,6 +5364,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5451,48 +5423,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5508,10 +5480,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -5536,29 +5508,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5577,94 +5549,94 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -5684,7 +5656,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -5710,34 +5682,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -5749,141 +5721,102 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -5898,6 +5831,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5918,48 +5890,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -5975,10 +5947,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6003,29 +5975,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6044,98 +6016,98 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -6181,34 +6153,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -6220,141 +6192,102 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6369,6 +6302,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6390,48 +6362,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -6447,10 +6419,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6475,29 +6447,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6516,96 +6488,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -6651,34 +6623,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -6690,161 +6662,122 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -6859,6 +6792,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6879,48 +6851,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -6936,10 +6908,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -6964,29 +6936,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7005,96 +6977,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -7140,34 +7112,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -7179,161 +7151,122 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39" t="s">
+      <c r="B21" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7348,6 +7281,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7368,48 +7340,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -7425,10 +7397,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7453,29 +7425,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7494,96 +7466,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -7629,34 +7601,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -7668,171 +7640,132 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7847,6 +7780,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7867,48 +7839,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="20" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -7924,10 +7896,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -7952,29 +7924,29 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24">
+      <c r="E6" s="45"/>
+      <c r="F6" s="46">
         <v>44929</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="47"/>
+      <c r="H6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7993,96 +7965,96 @@
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="2"/>
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="2"/>
       <c r="F10" s="9">
         <v>2</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>3</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="2"/>
       <c r="F11" s="9">
         <v>3</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="2"/>
       <c r="F12" s="9">
         <v>4</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -8128,34 +8100,34 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -8167,171 +8139,132 @@
       <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="29" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="29" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29" t="s">
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -8346,6 +8279,45 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
